--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhaum\OneDrive\Desktop\File_Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB413E8-47A6-4C7D-A4B7-B9846D8698CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D66E51-247C-49C7-9815-9AF435DA8C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="File_Upload Data" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>tejash</t>
   </si>
   <si>
-    <t>stock.xls</t>
-  </si>
-  <si>
     <t>sheet1</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Bhaumil</t>
   </si>
   <si>
-    <t>sunrise.xls</t>
-  </si>
-  <si>
     <t>ptcq kvkz vlkd doil</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>diamonds 12-05-2025</t>
   </si>
   <si>
-    <t>rajatv.work@gmail.com</t>
-  </si>
-  <si>
     <t>Total Supp</t>
   </si>
   <si>
@@ -94,6 +85,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>tempmail@gmail.com</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -125,11 +122,111 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -138,23 +235,233 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -165,6 +472,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1D3969C-FD60-4A5A-BE6B-A0107F0A221E}" name="Table1" displayName="Table1" ref="A7:G9" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A7:G9" xr:uid="{A1D3969C-FD60-4A5A-BE6B-A0107F0A221E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:G9">
+    <sortCondition ref="F7:F9"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{73E6B605-19EC-475B-814E-9AE1776FA1F3}" name="Supplier Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{404281DA-F0F4-4419-8D9D-D86CE0043B7B}" name="Supplier code" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1712FD40-D746-4B81-81A6-D73C85CB0807}" name="Supplier Email" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{9D96BEF7-C51A-4386-BD01-AB613BC41F48}" name="File Name" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9F4A9556-1671-48F6-A379-38A6412DFE7A}" name="Sheet Name" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{51AE2C58-E709-4D3C-BBC8-F0CE183DE767}" name="Upload Time" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{EF12258B-7AF0-4C14-9A7A-7AA94A3CED06}" name="Status" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,128 +756,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
         <f>COUNTA(B8:B1048576)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>22</v>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>12121</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.68125000000000002</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14">
         <v>83893</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.14722222222222223</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -565,11 +896,15 @@
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G9" xr:uid="{2B94870F-2B8A-4A9F-94EF-17C9603D4520}">
+      <formula1>"Active,Deactive"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F9" xr:uid="{5E7A66CB-0B50-4182-9381-0E988564A05A}">
+      <formula1>"00:00, 01:00, 02:00, 03:00, 04:00, 05:00, 06:00, 07:00, 08:00, 09:00, 10:00, 11:00, 12:00, 13:00, 14:00, 15:00, 16:00, 17:00, 18:00, 19:00, 20:00, 21:00, 22:00, 23:00"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -577,5 +912,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhaum\OneDrive\Desktop\File_Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D66E51-247C-49C7-9815-9AF435DA8C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C954C056-098E-43CB-AABD-9162B5527DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -57,27 +57,12 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Bhaumil</t>
-  </si>
-  <si>
-    <t>ptcq kvkz vlkd doil</t>
-  </si>
-  <si>
-    <t>bhaumil185@gmail.com</t>
-  </si>
-  <si>
-    <t>bhaumil.home@gmail.com</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>swet</t>
   </si>
   <si>
-    <t>diamonds 12-05-2025</t>
-  </si>
-  <si>
     <t>Total Supp</t>
   </si>
   <si>
@@ -91,6 +76,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>jcpq powl mllw trff</t>
+  </si>
+  <si>
+    <t>swet@9</t>
+  </si>
+  <si>
+    <t>list@sunrisediam.com</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>web@rrajesh.co</t>
   </si>
 </sst>
 </file>
@@ -427,13 +427,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -443,6 +436,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1D3969C-FD60-4A5A-BE6B-A0107F0A221E}" name="Table1" displayName="Table1" ref="A7:G9" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1D3969C-FD60-4A5A-BE6B-A0107F0A221E}" name="Table1" displayName="Table1" ref="A7:G9" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A7:G9" xr:uid="{A1D3969C-FD60-4A5A-BE6B-A0107F0A221E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:G9">
     <sortCondition ref="F7:F9"/>
@@ -759,7 +759,7 @@
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,13 +779,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -793,18 +793,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>COUNTA(B8:B1048576)</f>
@@ -828,10 +828,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -842,10 +842,10 @@
         <v>12121</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -859,26 +859,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="14">
-        <v>83893</v>
+        <v>22375</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="E9" s="14" t="str">
+        <f ca="1">"diamonds " &amp; TEXT(TODAY()-1, "dd-mm-yyyy")</f>
+        <v>diamonds 14-05-2025</v>
+      </c>
       <c r="F9" s="6">
-        <v>0.125</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -897,23 +901,21 @@
       <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G9" xr:uid="{2B94870F-2B8A-4A9F-94EF-17C9603D4520}">
       <formula1>"Active,Deactive"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F9" xr:uid="{5E7A66CB-0B50-4182-9381-0E988564A05A}">
-      <formula1>"00:00, 01:00, 02:00, 03:00, 04:00, 05:00, 06:00, 07:00, 08:00, 09:00, 10:00, 11:00, 12:00, 13:00, 14:00, 15:00, 16:00, 17:00, 18:00, 19:00, 20:00, 21:00, 22:00, 23:00"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{FE9DCED0-68D3-435E-918A-0B5B2015D107}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{7796963C-57B0-415F-B152-7D2B1689BC85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhaum\OneDrive\Desktop\File_Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C954C056-098E-43CB-AABD-9162B5527DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29172B-2116-4E6C-BC4D-DAEAF1DCCECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File_Upload Data" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>web@rrajesh.co</t>
+  </si>
+  <si>
+    <t>diamonds</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,9 +873,8 @@
       <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14" t="str">
-        <f ca="1">"diamonds " &amp; TEXT(TODAY()-1, "dd-mm-yyyy")</f>
-        <v>diamonds 14-05-2025</v>
+      <c r="E9" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="6">
         <v>1.0416666666666666E-2</v>
